--- a/outputs-HGR-r202-archive/c__Clostridia_A.xlsx
+++ b/outputs-HGR-r202-archive/c__Clostridia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10417.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95809.76437652647</v>
+        <v>70146.62000423382</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,11 +479,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22878.fa</t>
+          <t>even_MAG-GUT10417.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84300.51216472185</v>
+        <v>95809.76437652647</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -499,11 +499,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28136.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81207.03595207828</v>
+        <v>71509.47446510397</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29051.fa</t>
+          <t>even_MAG-GUT11412.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73972.36771533091</v>
+        <v>114550.1212106485</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,11 +539,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29076.fa</t>
+          <t>even_MAG-GUT1148.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83485.85692499307</v>
+        <v>79840.37822910654</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40857.fa</t>
+          <t>even_MAG-GUT12217.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66602.25207459994</v>
+        <v>108368.8770634211</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -579,11 +579,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42485.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77062.31740954959</v>
+        <v>115384.0047471105</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42494.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102461.0152130505</v>
+        <v>104884.1258428711</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42584.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81549.14162279168</v>
+        <v>117405.1599745854</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43894.fa</t>
+          <t>even_MAG-GUT22049.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81832.4187264478</v>
+        <v>97421.89571959394</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52107.fa</t>
+          <t>even_MAG-GUT22878.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116802.7749086313</v>
+        <v>84300.51216472185</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5727.fa</t>
+          <t>even_MAG-GUT28136.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84473.23288990806</v>
+        <v>81207.03595207828</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59039.fa</t>
+          <t>even_MAG-GUT29051.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77457.33608977369</v>
+        <v>73972.36771533091</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61159.fa</t>
+          <t>even_MAG-GUT29076.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87885.79209551282</v>
+        <v>83485.85692499307</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61959.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89277.35330399006</v>
+        <v>112241.7689173326</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70200.fa</t>
+          <t>even_MAG-GUT40857.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>114961.8156116052</v>
+        <v>66602.25207459994</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77982.fa</t>
+          <t>even_MAG-GUT42485.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>105234.9571069992</v>
+        <v>77062.31740954959</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78879.fa</t>
+          <t>even_MAG-GUT42494.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113890.5585103906</v>
+        <v>102461.0152130505</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78908.fa</t>
+          <t>even_MAG-GUT42584.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93748.30563322347</v>
+        <v>81549.14162279168</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83946.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91274.61671756732</v>
+        <v>111757.8563361279</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86868.fa</t>
+          <t>even_MAG-GUT43894.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107439.9103055472</v>
+        <v>81832.4187264478</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87091.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>117380.4233117023</v>
+        <v>101048.0196982883</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87486.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118380.9714551817</v>
+        <v>73076.030053158</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87573.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118498.23652985</v>
+        <v>71610.60477488833</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87828.fa</t>
+          <t>even_MAG-GUT52107.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118957.9554701441</v>
+        <v>116802.7749086313</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88085.fa</t>
+          <t>even_MAG-GUT52138.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123162.7889049486</v>
+        <v>110298.9152929693</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88218.fa</t>
+          <t>even_MAG-GUT5727.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120740.43272986</v>
+        <v>84473.23288990806</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88257.fa</t>
+          <t>even_MAG-GUT59039.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>112605.7526683244</v>
+        <v>77457.33608977369</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88679.fa</t>
+          <t>even_MAG-GUT61159.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112176.3614426853</v>
+        <v>87885.79209551282</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1039,18 +1039,378 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT61959.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>89277.35330399006</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6280.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>62958.46883102979</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6290.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>62958.46883102979</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70200.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>114961.8156116052</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75471.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>110012.6219574911</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77982.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>105234.9571069992</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78879.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>113890.5585103906</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78908.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>93748.30563322347</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83946.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>91274.61671756732</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86868.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>107439.9103055472</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87091.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>117380.4233117023</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87486.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>118380.9714551817</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87573.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>118498.23652985</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87828.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>118957.9554701441</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88085.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>123162.7889049486</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88218.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>120740.43272986</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88257.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>112605.7526683244</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88679.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>112176.3614426853</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88862.fa</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B49" t="n">
         <v>113033.5730537835</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>o__Christensenellales</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>o__Christensenellales</t>
         </is>
